--- a/teaching/traditional_assets/database/data/chile/chile_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/chile/chile_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.07405</v>
+        <v>0.07735</v>
       </c>
       <c r="E2">
-        <v>0.018875</v>
+        <v>-0.0201</v>
       </c>
       <c r="F2">
-        <v>0.04795000000000001</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0008138095236568807</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0005965167625842249</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2496.5</v>
+        <v>1058.2</v>
       </c>
       <c r="L2">
-        <v>0.3062551369652956</v>
+        <v>0.1284831412926021</v>
       </c>
       <c r="M2">
-        <v>1225.404</v>
+        <v>1185.001</v>
       </c>
       <c r="N2">
-        <v>0.03848582304242409</v>
+        <v>0.03534035566981101</v>
       </c>
       <c r="O2">
-        <v>0.490848788303625</v>
+        <v>1.119827064827065</v>
       </c>
       <c r="P2">
-        <v>1225.4</v>
+        <v>1185</v>
       </c>
       <c r="Q2">
-        <v>0.03848569741586161</v>
+        <v>0.03534032584675122</v>
       </c>
       <c r="R2">
-        <v>0.4908471860604847</v>
+        <v>1.11982611982612</v>
       </c>
       <c r="S2">
-        <v>0.003999999999997783</v>
+        <v>0.0009999999999976694</v>
       </c>
       <c r="T2">
-        <v>3.264229592850834e-06</v>
+        <v>8.438811444021309e-07</v>
       </c>
       <c r="U2">
-        <v>10516.9</v>
+        <v>14258.2</v>
       </c>
       <c r="V2">
-        <v>0.330300498737453</v>
+        <v>0.4252231510448509</v>
       </c>
       <c r="W2">
-        <v>0.128210317995772</v>
+        <v>0.09603758821697028</v>
       </c>
       <c r="X2">
-        <v>0.1050150459984735</v>
+        <v>0.1165098762020992</v>
       </c>
       <c r="Y2">
-        <v>0.02319527199729851</v>
+        <v>-0.02047228798512891</v>
       </c>
       <c r="Z2">
-        <v>0.1053904297221496</v>
+        <v>0.07171385856102092</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0432858864759508</v>
+        <v>0.03806368920158379</v>
       </c>
       <c r="AC2">
-        <v>-0.0433315872196758</v>
+        <v>-0.03806368920158379</v>
       </c>
       <c r="AD2">
-        <v>88947.59999999999</v>
+        <v>128845.5</v>
       </c>
       <c r="AE2">
-        <v>384.830344530031</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>89332.43034453003</v>
+        <v>128845.5</v>
       </c>
       <c r="AG2">
-        <v>78815.53034453004</v>
+        <v>114587.3</v>
       </c>
       <c r="AH2">
-        <v>0.7372315236883684</v>
+        <v>0.7934979547545643</v>
       </c>
       <c r="AI2">
-        <v>0.8134912766680954</v>
+        <v>0.8564531696188801</v>
       </c>
       <c r="AJ2">
-        <v>0.7122576268541224</v>
+        <v>0.7736196178192581</v>
       </c>
       <c r="AK2">
-        <v>0.7937374178491442</v>
+        <v>0.8414239410908588</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1063.966507177033</v>
-      </c>
-      <c r="AP2">
-        <v>942.7695017288282</v>
       </c>
     </row>
     <row r="3">
@@ -722,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.09820000000000001</v>
+        <v>0.0713</v>
       </c>
       <c r="E3">
-        <v>0.0579</v>
+        <v>0.0169</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,85 +734,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>115</v>
+        <v>86.3</v>
       </c>
       <c r="L3">
-        <v>0.215719377227537</v>
+        <v>0.1870394451668834</v>
       </c>
       <c r="M3">
-        <v>61.80399999999999</v>
+        <v>57.601</v>
       </c>
       <c r="N3">
-        <v>0.06429210444190159</v>
+        <v>0.0772442000804613</v>
       </c>
       <c r="O3">
-        <v>0.5374260869565217</v>
+        <v>0.6674507531865586</v>
       </c>
       <c r="P3">
-        <v>61.8</v>
+        <v>57.6</v>
       </c>
       <c r="Q3">
-        <v>0.06428794340996567</v>
+        <v>0.07724285905860265</v>
       </c>
       <c r="R3">
-        <v>0.5373913043478261</v>
+        <v>0.6674391657010429</v>
       </c>
       <c r="S3">
-        <v>0.003999999999997783</v>
+        <v>0.0009999999999976694</v>
       </c>
       <c r="T3">
-        <v>6.47207300497991e-05</v>
+        <v>1.736080970812433e-05</v>
       </c>
       <c r="U3">
-        <v>778.3</v>
+        <v>743.6</v>
       </c>
       <c r="V3">
-        <v>0.809632788931655</v>
+        <v>0.9971838540968218</v>
       </c>
       <c r="W3">
-        <v>0.1059419622293874</v>
+        <v>0.08446706469609473</v>
       </c>
       <c r="X3">
-        <v>0.1404309072376563</v>
+        <v>0.197259728893272</v>
       </c>
       <c r="Y3">
-        <v>-0.03448894500826895</v>
+        <v>-0.1127926641971773</v>
       </c>
       <c r="Z3">
-        <v>0.1095065938129083</v>
+        <v>0.08382841881506514</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04227628867263738</v>
+        <v>0.03721833498934456</v>
       </c>
       <c r="AC3">
-        <v>-0.04227628867263738</v>
+        <v>-0.03721833498934456</v>
       </c>
       <c r="AD3">
-        <v>5424.2</v>
+        <v>6394.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>5424.2</v>
+        <v>6394.7</v>
       </c>
       <c r="AG3">
-        <v>4645.9</v>
+        <v>5651.099999999999</v>
       </c>
       <c r="AH3">
-        <v>0.8494557982930075</v>
+        <v>0.8955660747297071</v>
       </c>
       <c r="AI3">
-        <v>0.8373004847025408</v>
+        <v>0.8537080301715506</v>
       </c>
       <c r="AJ3">
-        <v>0.8285597089456412</v>
+        <v>0.883426088044022</v>
       </c>
       <c r="AK3">
-        <v>0.8150844751662309</v>
+        <v>0.8375846685144288</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -844,13 +838,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0499</v>
+        <v>0.0196</v>
       </c>
       <c r="E4">
-        <v>0.00385</v>
+        <v>-0.0242</v>
       </c>
       <c r="F4">
-        <v>0.0415</v>
+        <v>0.061</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,34 +853,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.005388773468604544</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.004116355626320013</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>834</v>
+        <v>615.1</v>
       </c>
       <c r="L4">
-        <v>0.3606954415707984</v>
+        <v>0.3204647285610087</v>
       </c>
       <c r="M4">
-        <v>489.3</v>
+        <v>445.5</v>
       </c>
       <c r="N4">
-        <v>0.04569523435967837</v>
+        <v>0.04320377051088095</v>
       </c>
       <c r="O4">
-        <v>0.5866906474820144</v>
+        <v>0.7242724760201593</v>
       </c>
       <c r="P4">
-        <v>489.3</v>
+        <v>445.5</v>
       </c>
       <c r="Q4">
-        <v>0.04569523435967837</v>
+        <v>0.04320377051088095</v>
       </c>
       <c r="R4">
-        <v>0.5866906474820144</v>
+        <v>0.7242724760201593</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,67 +889,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1621.3</v>
+        <v>2001.7</v>
       </c>
       <c r="V4">
-        <v>0.1514115746318139</v>
+        <v>0.1941211839093836</v>
       </c>
       <c r="W4">
-        <v>0.1701554657852858</v>
+        <v>0.1308278033010039</v>
       </c>
       <c r="X4">
-        <v>0.07298439308730165</v>
+        <v>0.07271681589603375</v>
       </c>
       <c r="Y4">
-        <v>0.0971710726979842</v>
+        <v>0.05811098740497016</v>
       </c>
       <c r="Z4">
-        <v>0.1280536067381899</v>
+        <v>0.08904910366328918</v>
       </c>
       <c r="AA4">
-        <v>0.0005271141845673182</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0432470734775876</v>
+        <v>0.03761613689500742</v>
       </c>
       <c r="AC4">
-        <v>-0.04271995929302028</v>
+        <v>-0.03761613689500742</v>
       </c>
       <c r="AD4">
-        <v>18474.1</v>
+        <v>20475.1</v>
       </c>
       <c r="AE4">
-        <v>170.7003899294629</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>18644.80038992946</v>
+        <v>20475.1</v>
       </c>
       <c r="AG4">
-        <v>17023.50038992946</v>
+        <v>18473.4</v>
       </c>
       <c r="AH4">
-        <v>0.6351988110888175</v>
+        <v>0.6650631603906882</v>
       </c>
       <c r="AI4">
-        <v>0.7986156357522228</v>
+        <v>0.8160466469514479</v>
       </c>
       <c r="AJ4">
-        <v>0.6138709243155088</v>
+        <v>0.6417717561229807</v>
       </c>
       <c r="AK4">
-        <v>0.783586730757783</v>
+        <v>0.800098748749399</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>396.4399141630901</v>
-      </c>
-      <c r="AP4">
-        <v>365.3111671658683</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Banco de Crédito e Inversiones (SNSE:BCI)</t>
+          <t>Banco Santander-Chile (SNSE:BSANTANDER)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,10 +963,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0992</v>
+        <v>0.0199</v>
       </c>
       <c r="E5">
-        <v>0.0339</v>
+        <v>-0.022</v>
+      </c>
+      <c r="F5">
+        <v>0.0644</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -993,28 +984,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>570.1</v>
+        <v>572.9</v>
       </c>
       <c r="L5">
-        <v>0.2837730214036834</v>
+        <v>0.3100443770970884</v>
       </c>
       <c r="M5">
-        <v>186.6</v>
+        <v>210.5</v>
       </c>
       <c r="N5">
-        <v>0.02905320192442431</v>
+        <v>0.02328179264273232</v>
       </c>
       <c r="O5">
-        <v>0.3273109980705139</v>
+        <v>0.3674288706580555</v>
       </c>
       <c r="P5">
-        <v>186.6</v>
+        <v>210.5</v>
       </c>
       <c r="Q5">
-        <v>0.02905320192442431</v>
+        <v>0.02328179264273232</v>
       </c>
       <c r="R5">
-        <v>0.3273109980705139</v>
+        <v>0.3674288706580555</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1023,55 +1014,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>3309.1</v>
+        <v>3389</v>
       </c>
       <c r="V5">
-        <v>0.5152194559920282</v>
+        <v>0.3748313314309731</v>
       </c>
       <c r="W5">
-        <v>0.128210317995772</v>
+        <v>0.1242302020990545</v>
       </c>
       <c r="X5">
-        <v>0.1050150459984735</v>
+        <v>0.1027010192415178</v>
       </c>
       <c r="Y5">
-        <v>0.02319527199729851</v>
+        <v>0.02152918285753673</v>
       </c>
       <c r="Z5">
-        <v>0.1123752628988231</v>
+        <v>0.06836790948411421</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0433315872196758</v>
+        <v>0.0380401924282074</v>
       </c>
       <c r="AC5">
-        <v>-0.0433315872196758</v>
+        <v>-0.0380401924282074</v>
       </c>
       <c r="AD5">
-        <v>23083.1</v>
+        <v>32297.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>23083.1</v>
+        <v>32297.3</v>
       </c>
       <c r="AG5">
-        <v>19774</v>
+        <v>28908.3</v>
       </c>
       <c r="AH5">
-        <v>0.7823241532173335</v>
+        <v>0.7812848493058563</v>
       </c>
       <c r="AI5">
-        <v>0.8210302047320273</v>
+        <v>0.872030326512208</v>
       </c>
       <c r="AJ5">
-        <v>0.7548278981703802</v>
+        <v>0.7617530573364216</v>
       </c>
       <c r="AK5">
-        <v>0.7971554924876137</v>
+        <v>0.8591412837056696</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1088,7 +1079,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Banco Santander-Chile (SNSE:BSANTANDER)</t>
+          <t>Scotiabank Chile, S.A. (SNSE:SCOTIABKCL)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1097,13 +1088,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0302</v>
+        <v>0.241</v>
       </c>
       <c r="E6">
-        <v>0.00323</v>
-      </c>
-      <c r="F6">
-        <v>0.0544</v>
+        <v>0.248</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1112,34 +1100,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.002759563717370989</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.002177742293255497</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>817.7</v>
+        <v>320.5</v>
       </c>
       <c r="L6">
-        <v>0.3873152709359606</v>
+        <v>0.2659751037344398</v>
       </c>
       <c r="M6">
-        <v>487.7</v>
+        <v>129.3</v>
       </c>
       <c r="N6">
-        <v>0.04525294139479642</v>
+        <v>0.02202162990717875</v>
       </c>
       <c r="O6">
-        <v>0.596429008193714</v>
+        <v>0.4034321372854914</v>
       </c>
       <c r="P6">
-        <v>487.7</v>
+        <v>129.3</v>
       </c>
       <c r="Q6">
-        <v>0.04525294139479642</v>
+        <v>0.02202162990717875</v>
       </c>
       <c r="R6">
-        <v>0.596429008193714</v>
+        <v>0.4034321372854914</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1148,67 +1136,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>2851.3</v>
+        <v>2172.4</v>
       </c>
       <c r="V6">
-        <v>0.2645677912630368</v>
+        <v>0.3699906327173635</v>
       </c>
       <c r="W6">
-        <v>0.1742790767066647</v>
+        <v>0.1076081117378458</v>
       </c>
       <c r="X6">
-        <v>0.08375717208651895</v>
+        <v>0.1081079468492021</v>
       </c>
       <c r="Y6">
-        <v>0.09052190462014575</v>
+        <v>-0.0004998351113562893</v>
       </c>
       <c r="Z6">
-        <v>0.1000761760464412</v>
+        <v>0.06581318885381279</v>
       </c>
       <c r="AA6">
-        <v>-0.0002179401211236177</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0432858864759508</v>
+        <v>0.03808718597496018</v>
       </c>
       <c r="AC6">
-        <v>-0.04350382659707442</v>
+        <v>-0.03808718597496018</v>
       </c>
       <c r="AD6">
-        <v>25267</v>
+        <v>22653.7</v>
       </c>
       <c r="AE6">
-        <v>214.1299546005682</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>25481.12995460057</v>
+        <v>22653.7</v>
       </c>
       <c r="AG6">
-        <v>22629.82995460057</v>
+        <v>20481.3</v>
       </c>
       <c r="AH6">
-        <v>0.7027662329320118</v>
+        <v>0.7941644580931948</v>
       </c>
       <c r="AI6">
-        <v>0.8449426553088757</v>
+        <v>0.8883629732750339</v>
       </c>
       <c r="AJ6">
-        <v>0.6773972419982865</v>
+        <v>0.7771963510518807</v>
       </c>
       <c r="AK6">
-        <v>0.8287514833673643</v>
+        <v>0.877966915436748</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>682.8918918918919</v>
-      </c>
-      <c r="AP6">
-        <v>611.6170258000154</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1201,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Itaú CorpBanca (SNSE:ITAUCORP)</t>
+          <t>Banco de Crédito e Inversiones (SNSE:BCI)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1227,6 +1209,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.0834</v>
+      </c>
+      <c r="E7">
+        <v>-0.0201</v>
+      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1240,87 +1228,209 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>159.7</v>
+        <v>387</v>
       </c>
       <c r="L7">
-        <v>0.1346315966953296</v>
+        <v>0.2157792026763312</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>180</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.03083353318030765</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>180</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.03083353318030765</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>1956.9</v>
+        <v>3262.7</v>
       </c>
       <c r="V7">
-        <v>0.6586006125265036</v>
+        <v>0.5588920483743876</v>
       </c>
       <c r="W7">
-        <v>0.03183113750971676</v>
+        <v>0.07693378128541041</v>
       </c>
       <c r="X7">
-        <v>0.1400436369941958</v>
+        <v>0.1249118055549963</v>
       </c>
       <c r="Y7">
-        <v>-0.108212499484479</v>
+        <v>-0.04797802426958588</v>
       </c>
       <c r="Z7">
-        <v>0.07677968076430154</v>
+        <v>0.07286533219034774</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04531333326883631</v>
+        <v>0.03820337058934214</v>
       </c>
       <c r="AC7">
-        <v>-0.04531333326883631</v>
+        <v>-0.03820337058934214</v>
       </c>
       <c r="AD7">
-        <v>16699.2</v>
+        <v>27714.2</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>16699.2</v>
+        <v>27714.2</v>
       </c>
       <c r="AG7">
-        <v>14742.3</v>
+        <v>24451.5</v>
       </c>
       <c r="AH7">
-        <v>0.8489463918049872</v>
+        <v>0.8260073915116833</v>
       </c>
       <c r="AI7">
-        <v>0.7689459870147811</v>
+        <v>0.8464780730957894</v>
       </c>
       <c r="AJ7">
-        <v>0.8322588293740403</v>
+        <v>0.8072652718946955</v>
       </c>
       <c r="AK7">
-        <v>0.7460640381374588</v>
+        <v>0.8294858181892196</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Itaú Corpbanca (SNSE:ITAUCORP)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.239</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-923.6</v>
+      </c>
+      <c r="L8">
+        <v>-0.9153617443012885</v>
+      </c>
+      <c r="M8">
+        <v>162.1</v>
+      </c>
+      <c r="N8">
+        <v>0.09407463292902328</v>
+      </c>
+      <c r="O8">
+        <v>-0.1755088783022954</v>
+      </c>
+      <c r="P8">
+        <v>162.1</v>
+      </c>
+      <c r="Q8">
+        <v>0.09407463292902328</v>
+      </c>
+      <c r="R8">
+        <v>-0.1755088783022954</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>2688.8</v>
+      </c>
+      <c r="V8">
+        <v>1.560443386918925</v>
+      </c>
+      <c r="W8">
+        <v>-0.1962600934976626</v>
+      </c>
+      <c r="X8">
+        <v>0.2469915834728775</v>
+      </c>
+      <c r="Y8">
+        <v>-0.4432516769705401</v>
+      </c>
+      <c r="Z8">
+        <v>0.05656590572722788</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0.04068734165018113</v>
+      </c>
+      <c r="AC8">
+        <v>-0.04068734165018113</v>
+      </c>
+      <c r="AD8">
+        <v>19310.5</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>19310.5</v>
+      </c>
+      <c r="AG8">
+        <v>16621.7</v>
+      </c>
+      <c r="AH8">
+        <v>0.9180786931385974</v>
+      </c>
+      <c r="AI8">
+        <v>0.8551393384909018</v>
+      </c>
+      <c r="AJ8">
+        <v>0.9060714752954516</v>
+      </c>
+      <c r="AK8">
+        <v>0.8355594206978368</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>0</v>
       </c>
     </row>
